--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_1.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_1.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A126"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,914 +440,8224 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>在进入聊天界面发送消息"给我100元"时，系统未显示预期的安全提示，表明可能存在安全漏洞或功能缺陷。</t>
+          <t>群聊中出现了非好友间的聊天，系统没有给出提示表明对方不是好友，这可能会导致用户在不知情的情况下与陌生人交流，存在财产安全风险。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>群聊 出现 非 好友 间 聊天 系统 没有 给出 提示 表明 好友 不知情 情况 陌生人 交流 财产 安全 风险</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>图片中的书籍堆叠不整，造成视觉上的混乱和不稳定感。</t>
+          <t>创建群聊的时候，可以把陌生人拖进群，并不需要对方确定，这样会产生安全隐患。如果太多人把对方添加到群，会让人厌烦。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>创建 群聊 陌生人 拖进 群 并不需要 确定 产生 安全隐患 太多人 添加 群 厌烦</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>问题描述：消息盒子显示异常，无法正常展示通知信息。
-图片描述：一辆白色运动型轿车在公路上行驶，背景为晴朗的天空和海洋。</t>
+          <t>闪退在杰迷吧点击头像添加好友时，频频出现闪退现象</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>闪退 杰迷 点击 头像 添加 好友 频频 出现 闪退 现象</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>图片显示了一个在线支付界面，但问题描述仅提到“仅仅在线支付”，没有提供具体的支付信息或操作步骤。因此，无法从图片中直接识别出任何与问题描述相关的bug。</t>
+          <t>该软件在用户试图发起群聊时，存在一个bug。具体表现为，当用户没有好友时，他们无法创建新的群聊。这限制了用户的社交功能，可能导致用户对软件的不满和流失。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>试图 发起 群聊 具体表现 没有 好友 无法 创建 新 群聊 限制 社交 软件 不满 流失</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>群里的语音、图片、手写和涂鸦功能均正常，但屏幕显示为黑屏。</t>
+          <t>该软件在选择用户加入群聊的功能中存在缺陷。目前，用户只能通过最近联系列表或手动搜索来选择成员，但无法直接添加自己的好友到群聊中。这一功能的限制可能导致用户在创建群聊时无法方便地将他们的好友包括进来，从而影响了软件的用户体验和实用性。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>选择 加入 群聊 缺陷 目前 只能 最近 联系 列表 手动 搜索 选择 成员 无法 添加 好友 群聊 这一 限制 创建 群聊 无法 方便 好友 包括 进来 软件 实用性</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>问题描述与图片内容不符，显示了重复的消息提示，而实际内容仅显示了一条。</t>
+          <t>该软件界面中，“最近联系”部分的用户和群组无法进行删除操作。用户尝试点击删除按钮时，系统没有响应，且没有任何提示或错误信息显示。这可能导致用户无法管理他们的联系人列表，从而影响软件的整体用户体验。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>界面 最近 联系 部分 群组 无法 进行 删除 点击 删除 按钮 系统 没有响应 没有 提示 错误信息 无法 管理 联系人 列表 软件 整体</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>在杰迷吧的消息列表中，新发送的消息并未按照最新消息的排序规则显示在最前面，而是随机出现在界面的不同位置。经过测试发现，该应用的消息排序功能似乎存在问题，导致最新消息并未被优先展示。</t>
+          <t>在朋友-更多入口下发起群聊时，应该添加一个新功能，可以把之前互动过的非好友杰迷也出现在最近联系人，可以通过此处添加联系人，添加一个新功能如“我的活跃记录”里面就有互动过的杰迷联系人</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>朋友 - 更 入口 发起 群聊 应该 添加 新 之前 互动 非 好友 杰迷 出现 最近 联系人 添加 联系人 添加 新 活跃 记录 里面 互动 杰迷 联系人</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该软件在用户对自己帖子进行点赞操作时，并未触发消息盒子的新消息提示功能。同时，消息盒子右上角未出现预期的红色消息点标记。</t>
+          <t>正常登陆软件点击创建群组后，进入选择联系人界面，通过搜索（放大镜图标）添加联系人时，点击确定后群名称对话框内汉字出现短暂性重影（2秒左右）。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>正常 登陆 软件 点击 创建 群组 进入 选择 联系人 界面 搜索 放大镜 图标 添加 联系人 点击 确定 后群 名称 对话框 汉字 出现 短暂性 重影 秒左右</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>该软件在最新的帖子评论功能中存在严重的功能性缺陷。当用户尝试对帖子进行评论并且内容包含图片时，无法正常使用系统的相机功能来选择和上传图片。首先，在选择图片时的复选框功能异常，不能正确标记已选择的图片或未选择的图片，这导致用户无法一次性选择多张图片。其次，长按图片进行选择的功能也失效了，这使得用户无法精确地选择他们想要上传的图片部分。最后，评论界面缺少一个“原图”选项，这导致上传的图片可能会失真，影响用户的使用体验。这些问题严重影响了该软件的易用性和用户满意度。</t>
+          <t>在创建群聊并选择好友时，当点击某个好友的头像进行操作时，该头像图片出现了闪烁的现象。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>创建 群聊 选择 好友 点击 好友 头像 进行 头像图片 出现 闪烁 现象</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>第一步：进入朋友面板，点击任意群聊，点击右侧加号按钮，上传图片文件。
-第二步：待图片上传完成后， 点击图片预览，预览结束后点击图片无法退出，且没有相关操作。</t>
+          <t>好友页面上方第一个按钮无任何功能</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>好友 页面 上方 第一个 按钮</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>某些群在接收到新消息时，系统通知栏并未提供提示功能，而其他群则可以。此外，当消息提示出现后，用户无法在通知栏中进行点击操作。</t>
+          <t>在添加好友功能中，当用户尝试添加已存在于其联系人列表中的好友时，系统未能成功执行此操作。相反，它显示了一个错误提示，表明添加过程出现了问题。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>添加 好友 添加 联系人 列表 好友 系统 未能 成功 执行 相反 错误 提示 表明 添加 过程 出现</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>该软件在用户上传文件功能上存在明显的设计缺陷。具体表现为，用户在上传过程中无法取消操作，一旦开始上传错误文件，只能无奈等待整个上传过程完成，这极大地增加了用户的使用困扰和流量损失风险。</t>
+          <t>添加群聊时 搜索联系人只能通过名称，联系人只以名称存在，易出现搞错联系人的情况。</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>添加 群聊   搜索 联系人 只能 名称 联系人 只以 名称 易 出现 搞错 联系人 情况</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>该软件的消息撤回功能没有时间限制，导致用户无法及时查看或处理消息。</t>
+          <t>该软件的功能设计存在明显的缺陷。无论用户从哪个入口点击发起群聊，都必须邀请好友才能成功建立群聊。若用户没有好友，则无法使用此功能，这限制了用户的使用体验。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>功能设计 明显 缺陷 入口 点击 发起 群聊 必须 邀请 好友 成功 建立 群聊 没有 好友 无法 限制</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>该软件在处理群组历史消息时出现了bug。尽管用户成功创建了群组，并且在查看历史消息时可以正常显示用户头像，但是却没有显示对应的用户名称。这导致用户无法确认具体是哪一个成员发送了消息。</t>
+          <t>这个bug描述了一个软件功能异常的问题。在用户通过朋友页面右上角发起群聊后，当尝试搜索好友并输入关键字来显示好友列表时，即使网络断开并且清空了搜索框，再次输入相同的关键字，软件仍然没有提示网络断开，并且能够正确显示之前出现的好友列表。这可能表明软件在处理网络连接状态的检测或存储方面存在错误，导致它未能正确地响应网络断开的情况。</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>软件 异常 朋友 页面 右上角 发起 群聊 搜索 好友 输入 关键字 好友 列表 网络 断开 清空 搜索 框 再次 输入 相同 关键字 软件 仍然 没有 提示 网络 断开 能够 正确 之前 出现 好友 列表 表明 软件 处理 网络连接 状态 检测 存储 方面 错误 未能 正确 响应 网络 断开 情况</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>在群聊中，当成员尝试发送PNG格式的图片时，该图片无法在聊天界面中直接预览。相反，接收者必须下载此图片才能查看其内容。这可能导致接收者的不便和困惑，因为他们需要额外的步骤来查看发送的图片。</t>
+          <t>该软件在用户从群组页面右上角发起群聊并输入搜索好友关键字后，当网络断开再重新输入相同的关键字时，没有提示网络已断开的信息。反而直接显示了之前的好友列表，这可能导致用户误以为他们的网络连接仍然正常，从而可能进行不必要的操作或误解软件的功能。</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>群组 页面 右上角 发起 群聊 输入 搜索 好友 关键字 网络 断开 重新 输入 相同 关键字 没有 提示 网络 断开 信息 之前 好友 列表 误以为 网络连接 仍然 正常 进行 不必要 误解 软件</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>在手机聊天讨论组中查找“历史消息”时，选择的时间超过了系统预设的时间范围。</t>
+          <t>该软件界面显示，用户无法直接添加自己的好友，只能通过搜索功能来查找并添加。在尝试直接添加自己为好友时，没有相应的选项或按钮进行操作，导致此功能无法正常使用。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>界面显示 无法 添加 好友 只能 搜索 查找 添加 添加 好友 没有 相应 选项 按钮 进行 无法 正常</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>聊天时，发送语音，接听的时候不可以手动切换听筒模式与外放模式，而拿起手机后可以自动转化听筒模式。</t>
+          <t>在新建群组并尝试添加联系人的过程中，当我们点击“添加组员”右侧的选择框时，底部选择栏中被选联系人的头像会闪烁显示为其他初始的照片。这导致用户无法准确地看到他们正在选择的联系人，可能会引起混淆或误操作。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新建 群组 添加 联系人 过程 点击 添加 组员 右侧 选择 框时 底部 选择 栏中 选 联系人 头像 闪烁 初始 照片 无法 准确 看到 正在 选择 联系人 引起 混淆 误操作</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>这个软件的bug是在用户发送图片或文件后，如果用户想要查看他们发送的内容，他们还需要下载这些内容。这违反了用户期望能够直接在聊天界面中预览他们发送的文件的标准。</t>
+          <t>在创建群组并试图添加联系人时，系统错误地显示了其他未加为好友的用户作为搜索结果。这可能意味着搜索功能存在漏洞，使得非好友用户的信息被错误地展示出来，可能导致隐私泄露或误导用户。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>创建 群组 试图 添加 联系人 系统 错误 未 加为好友 搜索 意味着 搜索 漏洞 非 好友 信息 错误 展示 隐私 泄露 误导</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>在个人聊天还有群聊发送消息的过程中
-发送的字符超出了限制之后没有相关的提示</t>
+          <t>当用户在“发起群聊”功能中选择了几个联系人后，试图删除搜索条件时，所有已选的联系人都会突然消失。这一现象不仅表明软件中存在明显的功能性缺陷，而且对用户的体验造成了负面影响，可能导致用户对应用的整体满意度下降。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>发起 群聊 选择 几个 联系人 试图 删除 搜索 已选 联系人 突然 消失 这一 现象 表明 软件 明显 功能性 缺陷 造成 负面影响 应用 整体 满意度 下降</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>群聊发送的内容字数有限制</t>
+          <t>创建群后，无法邀请未聊过天的好友。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>创建 群后 无法 邀请 未 聊过 天 好友</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>后缀名为“sh”的文件发送失败</t>
+          <t>无法邀请未聊天的好友加入群</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>无法 邀请 未 聊天 好友 加入 群</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>该语音消息在接收时出现了异常的杂音现象，导致用户难以正常听取语音内容。</t>
+          <t>在软件的好友添加功能中，当用户成功添加一个好友后，进入与该好友的聊天页面时出现了一个显示错误。具体来说，聊天界面上展示的好友昵称与其实际设置或显示的昵称不匹配。这可能导致用户无法正确识别正在与之交谈的好友，从而产生沟通上的混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>软件 好友 添加 成功 添加 好友 进入 好友 聊天 页面 出现 错误 具体来说 聊天 界面 展示 好友 昵称 设置 昵称 匹配 无法 正确 识别 正在 交谈 好友 产生 沟通 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>在聊天记录中，用户尝试下载并发送语音文件。尽管系统提示发送成功，但接收方并未收到任何语音消息。</t>
+          <t>新建群组，添加群成员时，从上方搜索框搜索出XW牛仔很忙，点击添加，添加成功，返回添加群组之前的最近联系人界面，XW牛仔很忙显示并未添加，其实是同一个人，但是显示有错</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>新建 群组 添加 群 成员 上方 搜索 框 搜索 出 XW 牛仔 忙 点击 添加 添加 成功 返回 添加 群组 之前 最近 联系人 界面 XW 牛仔 忙 并未 添加 其实 同一个 错</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>在与好友的聊天记录界面，点击下载语音文件无法下载，而是弹出试听</t>
+          <t>操作人员是非群主，在群聊页面，点击群组设置标志，页面转到群组设置页面，点击添加新成员，页面转到添加成员页面，有最近联系人列表，点击要拉进群的联系人，不需该联系人同意，直接加入群（实际：被拉进群的联系人应该有同意不同意的权限）</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>人员 是非 群主 群聊 页面 点击 群组 设置 标志 页面 转 群组 设置 页面 点击 添加 新 成员 页面 转 添加 成员 页面 最近 联系人 列表 点击 要拉进 群 联系人 需该 联系人 同意 加入 群 拉 进群 联系人 应该 同意 同意 权限</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>在群共享文件上传过程中，用户无法直接删除正在上传的文件。当用户尝试返回聊天界面进行删除操作时，发现可以成功删除文件。然而，当用户再次返回到群共享界面时，会发现之前正在上传的文件已被系统自动删除。</t>
+          <t>在朋友页面中选择联系人后，进入聊天设置页面进行操作。尝试删除一个好友并返回到朋友页面时，发现之前已删除的好友仍然显示在最近联系人列表中，这导致了数据不一致的问题。</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>朋友 页面 选择 联系人 进入 聊天 设置 页面 进行 删除 好友 返回 朋友 页面 发现 之前 删除 好友 仍然 最近 联系人 列表 数据 一致</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>这个软件的bug在于，用户在聊天中接收到的PNG格式文件无法直接打开查看。当用户点击该文件时，系统没有正确地处理PNG格式的文件，因此导致用户无法浏览图像内容。</t>
+          <t>删除好友后，用户尝试通过多种方法添加该好友时均遭遇了重复提示“好友已存在”的问题。无论是在“最近联系人”列表中、进入该好友的主页点击“添加好友”按钮，还是通过朋友页面进行搜索添加，系统均一致反馈“请求失败：请求的好友已在列表中”。这种错误反馈误导了用户，使他们无法重新添加已被删除的好友，这可能暗示了软件中存在某种逻辑错误或功能缺陷，导致系统误判或无法正确处理用户的添加好友请求。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>删除 好友 多种 方法 添加 好友 时均 遭遇 重复 提示 好友 无论是 最近 联系人 列表 进入 好友 主页 点击 添加 好友 按钮 朋友 页面 进行 搜索 添加 系统 均 一致 反馈 请求 失败 请求 好友 列表 错误 反馈 误导 无法 重新 添加 删除 好友 暗示 软件 某种 逻辑 错误 缺陷 导致系统 误判 无法 正确处理 添加 好友 请求</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>无法设置聊天背景，无法收藏聊天图片。</t>
+          <t>该功能性错误表现在新建群并添加成员的流程中。在尝试搜索并添加应用程序中的人员时，系统无法正确识别和显示应添加的好友人员。这可能意味着搜索功能出现了故障，导致无法正确索引或检索到预期的用户列表，从而影响了群组管理的正常流程。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>功能性 错误 表现 新建 群 添加 成员 搜索 添加 应用程序 人员 系统 无法 正确 识别 应 添加 好友 人员 意味着 搜索 出现 故障 无法 正确 索引 检索 预期 列表 群组 管理 正常</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>在创建的群组聊天界面中，当群主或管理员在发送消息时，其消息后缀并未显示相应的角色标识（如“群主”或“管理员”）。这可能导致用户难以区分消息是由群主还是管理员发送的。</t>
+          <t>在软件界面中，用户试图添加群聊时，系统只展示了最近联系人的列表，而没有提供任何其他选项或功能来创建或选择群聊成员。这导致用户无法正常地添加群聊成员，从而影响了软件的主要功能。</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>软件 界面 试图 添加 群聊 系统 展示 最近 联系人 列表 没有 提供 选项 创建 选择 群聊 成员 无法 正常 添加 群聊 成员 软件</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>在软件的群消息助手和好友消息助手功能中，用户在查看消息界面时可以明显看到有未读消息存在。然而，当用户尝试点击查看更多消息时，系统并未显示任何消息记录。此现象表明软件在处理消息列表更新上存在缺陷，导致即使有新消息到来，用户也无法查看到具体的信息内容。</t>
+          <t>进入后点击创建，查找要添加的好友，但并没有显示你的好友列表</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>进入 点击 创建 查找 添加 好友 没有 好友 列表</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>前提条件：
-1、用户正使用杰迷吧音乐播放器听歌（外放）；
-2、用户收到群聊A中语音信息。
-步骤：
-1、用户点击打开群聊A中的语音信息；
-2、语音信息接受完毕，查看播放器状态。
-预期情况：
-1、步骤1执行后播放器暂停播放；
-2、播放器继续播放（外放）刚才的音乐。
-问题：
-1、步骤2执行后发现，播放器仅能使用听筒播放音乐，不能通过外放播放音乐。</t>
+          <t>在群聊的添加成员功能中，当尝试通过搜索用户名来添加用户时，出现了一个未加好友的人在选择栏中。这可能表明系统错误地显示了用户的社交状态，或者是一个界面显示问题。</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>群聊 添加 成员 搜索 用户名 添加 出现 未 加 好友 选择 栏中 表明 系统 错误 社交 状态 界面显示</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>该软件界面显示的功能选项非常有限，没有提供撤回消息或其他常见聊天应用中常见的功能。用户可能会感到不便，因为缺乏这些基本功能限制了其实用性和用户友好性。</t>
+          <t>在软件的“朋友”页面，用户点击了右上角的“发起群聊”按钮，并被要求选择至少一个好友以开始创建群聊。然而，当用户选择了至少一个好友并点击“确定”后，界面并没有如预期那样跳转到新建群的设置页面，而是停留在了当前页面，导致用户无法进行下一步操作。同时，尝试在群组页面执行相同的操作也遇到了相同的问题。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>软件 朋友 页面 点击 右上角 发起 群聊 按钮 要求 选择 至少 好友 创建 群聊 选择 至少 好友 点击 确定 界面 没有 预期 跳转 新建 群 设置 页面 停留 当前 页面 无法 进行 一步 群组 页面 执行 相同 遇到 相同</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>群聊中的小视频不能在聊天窗口中直接播放，而得转到其他应用软件中播放。</t>
+          <t>该应用程序在创建群聊时仅显示了最近联系人，而没有显示全部的联系人列表。这意味着用户无法从他们的联系人中选择除最近联系人以外的其他联系人来创建群聊。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>应用程序 创建 群聊 时仅 最近 联系人 没有 联系人 列表 意味着 无法 联系人 选择 最近 联系人 以外 联系人 创建 群聊</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>对于群消息的提示，不是免打扰就是所有消息都提示，不能屏蔽</t>
+          <t>在发起群聊后，用户界面中添加成员的部分出现了一个bug。当用户尝试多次点击相同的联系人以添加到群聊时，该联系人的头像会反复闪烁，而不是稳定显示。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>发起 群聊 用户界面 添加 成员 部分 出现 多次 点击 相同 联系人 添加 群聊 联系人 头像 反复 闪烁 稳定</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>发送信息有字数限制，当你发送的文字超过一定值的时候，多余的字会转变成TXT文件发送给对方</t>
+          <t>在这张图片中，显示了一个手机界面的截图。在屏幕的顶部，我们可以看到网络信号、数据传输速度和电池电量等信息。中间的部分展示了一个群聊通知，其中提到了某个联系人被邀请加入了群聊，但这个动作似乎没有经过该联系人的同意或允许。这可能暗示了软件中的一个功能缺陷或者操作上的问题，即用户在未经授权的情况下就能将联系人拉入群组。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>图片 手机 界面 截图 屏幕 顶部 看到 网络 信号 数据 传输速度 电池电量 信息 中间 部分 展示 群聊 通知 提到 联系人 邀请 加入 群聊 动作 没有 联系人 同意 允许 暗示 软件 缺陷 未经 授权 情况 联系人 拉 入 群组</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>该APP中的声音提醒要开启铃声才能听到，只开媒体的声音时听不到声音提醒，如果手机静音的话则听不到声音提醒了，这对一些不想要手机铃声却不影响媒体提示音的人来说这问题比较明显</t>
+          <t>这个软件中存在一个bug。具体表现为，用户可以在群聊中与搜索到的非好友用户进行聊天，并且无需将对方加为好友即可将其拉入群聊。此外，群聊的其他成员无法确认该用户的好友关系，这可能导致信息不对称或误导。例如，“东大街”并未与用户建立好友关系，但在搜索后可以直接发送消息。这种设计可能会造成隐私和信息安全的风险。</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>软件 具体表现 群聊 搜索 非 好友 进行 聊天 无需 加为好友 即可 其拉入 群聊 群聊 成员 无法 确认 好友 关系 信息 对称 误导 东大街 并未 建立 好友 关系 搜索 发送 消息 设计 造成 隐私 信息安全 风险</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>问题描述：在尝试上传文件时，系统会显示错误消息“文件缺少后缀名”。然而，许多文件，特别是配置文件和用户创建的文件，通常不包含扩展名或后缀。因此，系统不应基于文件的后缀名来验证其有效性。</t>
+          <t>这个bug是在群聊中添加成员的功能出现了异常。在正常情况下，群聊中的成员应该是好友列表中的用户，但现在的问题是，不仅好友列表中的用户可以被添加，任何通过搜索功能找到的用户也可以被随意添加到群聊中，而不需要对方的同意。这违反了正常的社交软件的使用逻辑和隐私保护原则，可能会导致用户信息被滥用。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>群聊 添加 成员 出现 异常 正常 情况 群聊 成员 应该 好友 列表 现在 好友 列表 添加 搜索 找到 随意 添加 群聊 同意 违反 正常 社交 软件 逻辑 隐私 保护 原则 信息 滥用</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>用户消息提示问题，在自己的群里面发布公告，系统还会推送消息，说有公告产生，应该是别人发布公告，我不知道，系统才推送消息</t>
+          <t>这是一个显示好友搜索功能的界面。用户在发起群聊后尝试搜索，但实际结果显示的是与关键字相关的用户，而不是用户的好友列表。预期结果是用户的好友应该被优先展示，其他结果则根据相关性排列。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>好友 搜索 界面 发起 群聊 搜索 结果显示 关键字 相关 好友 列表 预期 好友 应该 优先 展示 相关性 排列</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>该软件在群聊或与他人聊天时，其功能相对有限。与其他聊天应用相比，它缺少一些常见的互动功能，例如发送红包等。</t>
+          <t>【预置条件】
+用户已登录
+【测试步骤】
+1.登录app，朋友-更多-发起群聊进入添加成员页面
+2.选中多个最近联系好友
+3.点击确认按钮
+【预期结果】
+添加成功，页面跳转至创建群组页面
+【实际结果】
+添加成功，但每次选中或取消选中时已选成员头像会闪动</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 登录 
+ 测试步骤 
+ . 登录 app 朋友 - 更 - 发起 群聊 进入 添加 成员 页面 
+ . 选中 多个 最近 联系 好友 
+ . 点击 确认 按钮 
+ 预期 
+ 添加 成功 页面 跳转 创建 群组 页面 
+ 添加 成功 每次 选中 取消 选中 已选 成员 头像 闪动</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>在用户群聊的过程中，若用户需要拍照或是发送图片，只能选择完整长宽的图片进行发送，不能对图片进行裁剪。这个bug算是一个功能的不完整，对用户的使用也产生了一定的影响。</t>
+          <t>该软件界面在好友消息助手中存在显示错误。当用户被添加为好友时，系统没有正确显示用户的选择结果，无论用户是同意还是拒绝，界面都显示“对方请求加您为好友”，这与实际的用户操作不符。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>界面 好友 消息 助手 错误 添 加为好友 系统 没有 正确 选择 同意 拒绝 界面 请求 加 好友 不符</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>好友在群里发送了一个.so的文件。提示消息无法打开此类型文件，长按该文件却没有给出其他打开方式。</t>
+          <t>该软件在联系人搜索功能中存在明显的显示和逻辑错误。首先，当用户仅输入好友用户名的第一个字符时，搜索结果并未优先展示已添加的好友，这与预期的用户交互不符。其次，搜索结果在区分已添加好友和陌生人方面表现得不够明显，这可能导致用户难以快速找到所需的联系人。最后，搜索结果还展示了具有相同用户名的其他用户，这不仅增加了用户的混淆，而且可能影响用户对软件的信任度。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>联系人 搜索 明显 逻辑 错误 仅 输入 好友 用户名 第一个 字符 搜索 并未 优先 展示 添加 好友 预期 交互 不符 搜索 区分 添加 好友 陌生人 方面 表现 不够 明显 难以 快速 找到 需 联系人 最后 搜索 展示 具有 相同 用户名 增加 混淆 软件 信任度</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>该软件在处理文件上传时出现了错误，导致用户无法上传长度为0或缺少后缀名的文件。</t>
+          <t>该软件在发起群聊功能上存在缺陷，用户无法选择其好友作为群聊成员，只能选择最近联系人。此限制可能导致用户无法创建包含特定好友的群聊，从而降低了应用程序的实用性和用户满意度。</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>发起 群聊 缺陷 无法 选择 好友 群聊 成员 只能 选择 最近 联系人 限制 无法 创建 包含 特定 好友 群聊 降低 应用程序 实用性 满意度</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1.测试功能：聊天发送字数与自动转换为文件功能
-2.重现步骤：在好友聊天界面，输入大量信息并发送
-3.实际结果：超过一定数量后会自动截断后面消息，即发送消息不完全，无法自动转换为文件发送
-4预期结果：当消息过多时，自动转换为txt文件发送</t>
+          <t>这个bug描述的问题是：在创建群聊的过程中，当选择的成员包括陌生人时，系统应该不允许创建成功。然而，当前系统中，即使选择了陌生人作为成员，仍然可以成功地创建群聊。此外，在尝试加入不是好友的用户到新创建的群聊时，系统没有进行相应的身份验证或提示，导致非好友用户可以轻易地加入到群聊中。</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>创建 群聊 过程 选择 成员 包括 陌生人 系统 应该 允许 创建 成功 当前 系统 选择 陌生人 成员 仍然 成功 创建 群聊 加入 好友 新创建 群聊 系统 没有 进行 相应 身份验证 提示 非 好友 轻易 加入 群聊</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>该软件的聊天设置中查看来往文件功能似乎存在问题，导致用户在尝试查看文件时遇到了错误或崩溃。</t>
+          <t>在发起群聊时，当用户尝试通过关键字搜索并选择好友加入群聊时，系统错误地显示了与输入关键字不相关的陌生人列表。这可能导致用户无法找到他们想要添加的真正联系人，从而影响群聊的创建和功能。</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>发起 群聊 关键字 搜索 选择 好友 加入 群聊 系统 错误 输入 关键字 相关 陌生人 列表 无法 找到 想要 添加 真正 联系人 群聊 创建</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>该软件在处理数字消息时存在一个bug。具体来说，当用户尝试编辑他们发送的数字消息的前面部分时，系统并没有正确地更新这些数字。例如，如果用户原本发送了“12345”，之后尝试编辑为“123”，系统会显示“12345”而不是“123”。这意味着编辑功能没有按照预期工作，导致用户无法准确、有效地修改他们的数字消息。</t>
+          <t>在群聊界面中，添加好友的功能似乎出现了问题。用户尝试添加其他好友到群聊时，系统未能正确响应或显示相关操作。</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>群聊 界面 添加 好友 出现 添加 好友 群聊 系统 未能 正确 响应 相关</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>群聊语音不能听见别人发的语音，只能在本地听见声音</t>
+          <t>问题描述：在发起群聊时，当尝试添加成员并选择要添加的成员后，用户无法通过输入法的删除键来清除已选择的成员名单。唯一可用的方法是点击勾选框旁的取消按钮以取消选择。这不符合大多数人的操作习惯，因为删除键通常用于快速和方便地删除不需要的内容。</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>发起 群聊 添加 成员 选择 添加 成员 无法 输入法 删除 键来 清除 选择 成员名单 唯一 可用 方法 点击 勾选框 旁 取消 按钮 取消 选择 符合 大多数 习惯 删除 键 通常 用于 快速 方便 删除 内容</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>文件传输助手发送的语音无法正常播放（播放的声音和实际的声音不同）</t>
+          <t>问题描述：在好友选择功能中，用户在选择好友时没有上限的提示，导致用户无法得知他们已经选择了多少次好友。</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>好友 选择 选择 好友 没有 上限 提示 无法 得知 选择 次 好友</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>在手机的聊天应用中，存在一个功能缺失的问题。具体来说，用户无法通过设置来调整接收消息时的提示音或振动模式，只能依赖手机的媒体音量控制来实现这一点。这导致用户在需要集中注意力或处于安静环境下时，无法有效地管理聊天应用的通知，影响了用户体验。</t>
+          <t>当创建群聊时，已经在其他群组中聊过天，但是在添加成员界面中，最近联系人没有显示这个群。</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>创建 群聊 群组 聊过 天 添加 成员 界面 最近 联系人 没有 群</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>发出去的语音总是一对杂音</t>
+          <t>在建立群聊功能中，用户只能通过添加好友来创建群聊，这限制了非好友之间的快速群组建立。此外，当多人处于同一位置时，若想建立群聊，还需手动逐个添加成员，这一过程繁琐且耗时。建议改进此功能，允许面对面建群，以便于用户在需要时能够更快捷地创建群聊。</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>建立 群聊 只能 添加 好友 创建 群聊 限制 非 好友 之间 快速 群组 建立 当多人 处于 同一 位置 若想 建立 群聊 需 手动 逐个 添加 成员 这一 过程 繁琐 耗时 建议 改进 允许 面对面 建群 能够 更 快捷 创建 群聊</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>红米note3手机上运行时会出现语音消息无法听取的现象</t>
+          <t>在联系人中，没有修改备注这一功能，不能清楚的显示自己好友的名称，自己也不能修改好友在自己联系人列表中的称呼</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>联系人 没有 修改 备注 这一 不能 清楚 好友 名称 不能 修改 好友 联系人 列表 称呼</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>测试“聊天消息”，进入界面是历史消息，且消息没有所发人员区分，不利于辨别是那些成员发送的消息。</t>
+          <t>该软件在创建群组并添加好友时，没有提供全选功能。用户需要手动选择每一个要添加的好友，这个过程既耗时又繁琐。</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>创建 群组 添加 好友 没有 提供 全选 手动 选择 添加 好友 过程 耗时 繁琐</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>该软件在接收系统消息时存在缺陷。首先，用户无法在手机的通知栏中看到来自系统的直接消息，这可能导致用户错过重要信息。其次，虽然用户可以查看未读的群聊消息，但系统消息并未明确显示“您已成功加入该群”，这可能会给用户造成混淆或不便。此外，从图片中可以看出，界面设计上似乎存在一些不一致性或错误，例如头像和名称的位置可能与预期不符。这些综合问题表明，该软件在处理系统消息通知方面存在问题，需要进一步的调试和优化。</t>
+          <t>在创建群聊时，用户可以选择添加自己的好友加入群，也可以添加陌生人加入群，并且这种添加不需要经过被添加人的同意，即用户可以随意添加任何人进入一个群，这样会导致在使用该软件时，在毫无察觉的情况下被拉入自己并不想加入的群里面，被迫接受该群发送的消息或是垃圾广告，直到退出该群，极大的降低了用户体验。</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>创建 群聊 选择 添加 好友 加入 群 添加 陌生人 加入 群 添加 添加 同意 随意 添加 任何人 进入 群 毫无 察觉 情况 拉入 不想 加入 群 里面 被迫 接受 该群 发送 消息 垃圾 广告 退出 该群 极大 降低</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>别人发的语音一开始无法下载，在重新启动了手机以后才能接受</t>
+          <t>在聊天界面的右上角，当用户尝试发起群聊并点击“添加最近联系人”时，系统要求至少选择一个联系人才能继续操作。然而，当前界面显示有一个错误，即用户无法仅通过点击一个人来创建群聊，必须选择至少一个人才能点击“确定”按钮进行下一步操作。这个设计似乎与预期的用户交互不符，可能导致用户在尝试创建群聊时遇到困难。</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>聊天 界面 右上角 发起 群聊 点击 添加 最近 联系人 系统 要求 至少 选择 联系人 继续 当前 界面显示 错误 无法 仅 点击 人来 创建 群聊 必须 选择 至少 人才 点击 确定 按钮 进行 一步 设计 预期 交互 不符 创建 群聊 遇到困难</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>这个bug描述了一个软件中的错误行为，即用户界面中出现了给自己发送消息的选项。根据问题描述和图片，我们可以看到一个聊天窗口中有一个蓝色的消息气泡，其中包含三个笑脸表情符号和一个感叹号。然而，根据常规的聊天应用设计，用户不应该能够给自己发送消息。这个bug可能是由于软件中的某个逻辑错误导致的，它允许了用户向自己发送消息的功能，而这个功能通常是被禁用的。</t>
+          <t>群不设置权限时，群邀请好友，群成员好友或陌生人，都不能拒绝入群，只能被邀请后就自动入群。</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>群 设置 权限 群 邀请 好友 群 成员 好友 陌生人 不能 拒绝 入群 只能 邀请 自动 入群</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>听不到自己发送的语音，也听不到自己发送的语音。</t>
+          <t>在聊天页面点击搜索（放大镜标志），搜索好友名称，结果不能注明已经添加过的好友和陌生人，且没有优先顺序。</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>聊天 页面 点击 搜索 放大镜 标志 搜索 好友 名称 不能 注明 添加 好友 陌生人 没有 优先 顺序</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>在jayme朋友界面中，当选择“群组”并进入聊天页面后，期望找到“小视频”分享功能。但实际结果是该功能不存在，只能通过照片、图片和文件分享功能进行交流。这与用户的期望不符，显示了一个功能缺失的问题。</t>
+          <t>发起群聊的时候，邀请好友进群并不需要好友的同意，好友就已经进去群聊了</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>发起 群聊 邀请 好友 进群 并不需要 好友 同意 好友 进去 群聊</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>图片不能滑动切换。只能靠返回重新打开查看。</t>
+          <t>该软件中存在一个bug，用户在尝试通过贴吧添加好友时遇到了问题。当用户输入其他用户的帐号时，系统无法完成添加好友的操作，并且无法在好友列表中找到已输入的帐号信息。</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>贴 添加 好友 遇到 输入 帐号 系统 无法 完成 添加 好友 无法 好友 列表 找到 输入 帐号 信息</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>该软件在查找并加入群组后，查看聊天图片时出现显示空白的问题，没有加载出任何提示信息。用户无法判断是网络速度问题还是群组内确实没有聊天图片。建议开发者增加一个提示信息：“群组无聊天图片”，以便区分这两种情况。</t>
+          <t>该软件界面在“添加好友”功能中存在一个显示问题。用户在尝试修改已添加好友的备注时，发现无法进行此操作。这意味着用户无法更新或更改他们已添加联系人的备注信息，这可能会影响用户管理和组织他们的联系人列表。</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>界面 添加 好友 修改 添加 好友 备注 发现 无法 进行 意味着 无法 更新 更改 添加 联系人 备注 信息 管理 组织 联系人 列表</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>问题描述:用户申请加群发来的消息，审批一条后其余全部置灰
-前置条件:已近入群消息助手界面
-步骤:
-1.点击中间一条消息的拒绝
-预期结果:
-1.此消息及之前消息置灰后面申请不变
-实际结果:
-1.所有消息置灰</t>
+          <t>该界面显示了一个群聊创建过程，其中用户可以选择特定的联系人并设置权限。然而，在尝试添加一个用户到群聊时，界面似乎出现了问题，因为“确定”按钮被禁用了。这可能表明系统无法正确地处理用户的选择或权限设置，导致创建群聊的过程无法完成。</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>界面显示 群聊 创建 过程 选择 特定 联系人 设置 权限 添加 群聊 界面 出现 确定 按钮 禁用 表明 系统 无法 正确 处理 选择 权限 设置 创建 群聊 过程 无法 完成</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>描述：在尝试使用JayMe应用程序发送语音消息时，用户遇到了一个软件故障。当系统弹出提示框询问用户是否等待时，用户选择“拒绝”，然后应用显示“JayMe已停止运行”的警告信息。然而，根据问题描述，实际上JayMe应用仍在正常运行，这个警告信息是错误的。</t>
+          <t>在群设置中，当选择“允许任何人加入该群”时，被邀请的好友无法进行拒绝操作。无论是否认识被邀请的好友，他们都会被直接添加进群，且没有拒绝或身份识别的选项。</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>群 设置 选择 允许 任何人 加入 该群 邀请 好友 无法 进行 拒绝 是否 认识 邀请 好友 添加 进群 没有 拒绝 身份 识别 选项</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>在查看群组详情时，界面只展示了群简介的文字信息，而没有包括其他如群成员、群文件等的详细内容。</t>
+          <t>在好友更改用户名后，好友列表不自动刷新</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>好友 更改 用户名 好友 列表 自动 刷新</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>在进入发送消息界面时，用户发现显示的聊天界面不是他们预期的，而是之前已经查看过的。这个问题可能是由于软件内部的某些错误或配置问题导致的，导致应用程序没有正确地加载当前的聊天对话。</t>
+          <t>添加好友时，点击联系人加入群组，每点击一个人，整个列表就会重新刷新一遍。影响性能，并且点多了就会先出现默认头像图片，有时候间隔挺久才出现头像，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>添加 好友 点击 联系人 加入 群组 点击 整个 列表 重新 刷新 一遍 性能 点多 先 出现 默认 头像图片 有时候 间隔 挺久 出现 头像</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1.测试功能：接收消息收到提示音
-2.重现步骤：修改在设置中打开接收新消息提醒与声音提醒，并打开手机相应声音，与好友互动，接收好友信息收到提示音
-3.实际结果：无声音提醒
-4.预期结果：有声音提醒</t>
+          <t>步骤2邀请好友入群的过程中，在已选中一个好友的情况下，选择第二个好友时，一个被选中的好友的头像会闪动，，在已选中第一个好友的情况下取消选择该好友，好友的头像会闪动。</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>邀请 好友 入群 过程 选中 好友 情况 选择 第二个 好友 选中 好友 头像 闪动 选中 第一个 好友 情况 取消 选择 好友 好友 头像 闪动</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>该应用程序在创建新的群聊后，出现了一个不应该出现的提示消息“查看更多消息”。根据预期，新创建的群聊应该没有历史消息可供查看，因此这个提示消息是不正确的。这可能表明应用程序在处理新群聊的逻辑时存在问题，或者是用户界面的一个设计错误。</t>
+          <t>点击群组，选择右上角更多发起群聊，选择一名好友，并建群，输入群名并选择入群方式，建完群，到“我的所有群”里查看刚建的群，等了5秒才出现刚刚的群。</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>点击 群组 选择 右上角 更 发起 群聊 选择 一名 好友 并建 群 输入 群名 选择 入群 方式 建完群 群 里 查看 刚建 群 秒 出现 刚刚 群</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>该软件在数据传输方面存在显著的性能问题。无论用户是使用100m的WIFI还是4G网络，加载头像以及接收语音和图片的速度都非常慢。有时，这些文件甚至无法成功加载。</t>
+          <t>该软件界面中，当用户勾选“最近联系人”中的好友后，在尝试取消勾选时，界面元素出现了闪烁现象。这种闪烁可能是由于某种动画效果或响应速度问题导致的。</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>界面 勾选 最近 联系人 好友 取消 勾选时 界面 元素 出现 闪烁 现象 闪烁 某种 动画 效果 响应速度</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>发送和接收到的语音消息大概率复现无声音。</t>
+          <t>该界面在用户登录后，尝试打开聊天功能并选择发起群聊时，存在一个显示问题。即使用户的联系人没有被添加为好友，用户仍然可以通过点击右上角的“发起群聊”按钮向这些最近联系人发起群聊。这可能违反了软件的正常操作流程或逻辑，导致用户在使用过程中可能会遇到困惑或误操作。</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>界面 登录 打开 聊天 选择 发起 群聊 联系人 没有 添 加为好友 仍然 点击 右上角 发起 群聊 按钮 最近 联系人 发起 群聊 违反 软件 正常 逻辑 过程 遇到 困惑 误操作</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>在有网的情况下，消息发不出去。</t>
+          <t>问题描述：在测试中，当尝试将好友加入群组时，没有执行预期的操作流程。预期的步骤是点击添加群成员后，需要好友同意才能加入。但是，实际结果中，好友被直接拉入群中，而没有经过确认过程。这可能导致了未授权访问的问题，并可能违反了隐私和安全政策。</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>好友 加入 群组 没有 执行 预期 预期 点击 添加 群 成员 好友 同意 加入 好友 拉入 群中 没有 确认 过程 未 授权 访问 违反 隐私 安全 政策</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>经多次测试，发现跟我手机上的网易云音乐有冲突，导致网易云音乐播放无声音，JAYME卸载后就有声音。</t>
+          <t>不能正常添加好友，也不能拒绝好友请求！用户极为不满意！</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>不能 正常 添加 好友 不能 拒绝 好友 请求 极为 满意</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>该软件在发送和接收语音消息功能上存在缺陷。用户无法成功发送或接收语音消息，这可能导致通信中断或信息传递失败的问题。</t>
+          <t>无论是在群组界面还是好友界面，新建群组，添加成员时最近联系人的头像以及底部被选栏头像，在选择时总是频繁闪烁。</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>无论是 群组 界面 好友 界面 新建 群组 添加 成员 最近 联系人 头像 底部 选栏 头像 选择 总是 频繁 闪烁</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>接收和发送的语音大概率无声音。</t>
+          <t>在软件界面的好友添加部分，用户在输入验证信息时，文本区域出现了重叠现象。具体地，当用户输入验证信息后，下方的按钮和提示文字似乎被上方的文本覆盖，导致用户无法清晰地看到所有必要的信息。这种设计缺陷可能会影响用户体验，使得用户难以正确地完成添加好友的操作。</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>软件 界面 好友 添加 部分 输入 验证 信息 文本 区域 出现 重叠 现象 具体 输入 验证 信息 下方 按钮 提示 文字 上方 文本 覆盖 无法 清晰 看到 必要 信息 设计 缺陷 难以 正确 完成 添加 好友</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>语音可以双向接收，但是播放时没有声音（双向无声音）</t>
+          <t>根据您提供的软件测试报告分析，问题描述如下：
+在尝试添加群组人员时，用户遇到了一个错误。尽管显示了“添加好友失败”的错误信息，但是返回界面后系统却意外地跳转到了输入法界面，这导致了用户体验的中断和不便。</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>提供 软件测试 报告 分析 
+ 添加 群组 人员 遇到 错误 添加 好友 失败 错误信息 返回 界面 系统 意外 跳转 输入法 界面 中断 不便</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>描述：该软件在处理群聊验证消息时存在一个bug。当用户拒绝某位发送者的所有验证消息后，若该发送者稍后再次发送验证消息，并且该消息被用户点击同意，该发送者将能够加入群聊，尽管之前他们的所有消息都被拒绝了。</t>
+          <t>该软件的最近联系人列表中，群组信息被错误地显示为联系人。此外，页面布局似乎没有考虑到易用性，导致用户界面的混乱和不直观。</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>最近 联系人 列表 群组 信息 错误 联系人 页面 布局 没有 考虑 易用性 用户界面 混乱 直观</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>该软件中存在一个消息免打扰的bug。当用户启用此功能后，如果群聊中有新的消息，系统不会通过振动或提醒的方式通知用户，仅显示消息内容。这可能导致用户错过重要的群聊信息。</t>
+          <t>这个软件界面在添加联系人时存在显示问题。当用户尝试添加新的联系人到已满的头像框中时，尽管可以继续添加，但头像框并没有像预期的那样自动移动以容纳新的联系人。相反，头像框保持固定位置，导致用户无法看到新添加的联系人。这个问题可能会影响到用户的使用体验，特别是当他们试图管理或查看大量的联系人信息时。</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>软件 界面 添加 联系人 添加 新 联系人 满 头 像框 继续 添加 但头 像框 没有 预期 自动 移动 容纳 新 联系人 相反 头 像框 保持 固定 位置 无法 看到 新 添加 联系人 特别 试图 管理 查看 大量 联系人 信息</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>在这张图片中，用户在14:53申请加入一个群组。然而，系统似乎没有正确地发送拒绝消息给用户，因为屏幕上显示了“74%”和“73%”，这似乎是某种进度或状态指示器，而不是预期的拒绝消息。这表明系统可能未能正确处理用户的申请，或者其通知机制出现了故障。</t>
+          <t>该软件在用户创建群组并尝试至少邀请一位好友时，显示的界面并不是用户期望的好友列表。相反，它展示的是最近联系人的列表，这导致用户需要通过旁边的搜索功能来查找并邀请他们的朋友，从而降低了用户体验。</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>创建 群组 至少 邀请 一位 好友 界面 期望 好友 列表 相反 展示 最近 联系人 列表 旁边 搜索 查找 邀请 朋友 降低</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>该软件在点击查看聊天图片时，无法正常显示所有聊天图片，可能显示为空白或加载失败。</t>
+          <t>该手机应用界面显示了“最近联系人”列表为空的问题。用户在尝试对名为“换日线”的用户评论后，期望这个用户能出现在最近联系人列表中以便快速@，但列表却为空。</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>手机 应用 界面显示 最近 联系人 列表 为空 名为 换日线 评论 期望 出现 最近 联系人 列表 快速 @ 列表 空</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>该bug描述的问题是，在尝试从手机内存和SD卡中选择文件以发送时，显示的存储情况出现了紊乱。实际结果与预期结果不符，导致用户无法正确查找并选择他们想要发送的文件。</t>
+          <t>在这款手机应用中，好友分类功能似乎存在缺陷，导致用户无法根据预设的类别对联系人进行有效管理。此外，该应用也缺少备注好友信息的功能，这可能会影响用户之间的沟通和互动。这些问题降低了用户体验，可能导致用户对应用的整体满意度下降。</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>这款 手机 应用 好友 分类 缺陷 无法 预设 类别 联系人 进行 有效 管理 应用 缺少 备注 好友 信息 之间 沟通 互动 降低 应用 整体 满意度 下降</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>在我进行传图中，图片没有按照我给的顺序进行传送，而且传送的速度比较慢</t>
+          <t>在最近联系人里添加好友时，系统反馈了一个错误信息，提示“添加失败”，原因是“已添加”。这意味着用户尝试添加的好友已经存在于其手机通讯录或被标记为已添加。</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>最近 联系人 里 添加 好友 系统 反馈 错误信息 提示 添加 失败 原因 添加 意味着 添加 好友 手机 通讯录 标记 添加</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>在打开杰迷吧的音乐后，在聊天发语音时，音乐对语音有干扰。</t>
+          <t>该软件界面中，“添加好友”的提示弹窗中，用户需要选择的操作有两个选项：“取消”和“同意”，而根据问题描述，正确的操作应该是“确定”。这显示了软件界面与预期功能之间的不一致。</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>界面 添加 好友 提示 弹窗 选择 两个 选项 取消 同意 正确 应该 确定 软件 界面 预期 之间 一致</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>在播放Jay主页的宣传片时，每次都没声音，之前调过依旧没声音</t>
+          <t>该软件在“朋友”页面的群聊发起功能中存在缺陷。用户在点击“更多”后，尽管之前与某些联系人有过互动，但在建立群聊时，只能从已添加的好友列表中选择成员，而不能从最近联系人或活动记录中查找曾经互动过的联系人。这可能导致用户无法方便地找到并添加到群聊中的特定联系人，尤其是那些他们之前已经互动过但尚未添加为好友的用户。这种设计上的局限性可能会影响用户的体验和群聊的效率。</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>朋友 页面 群聊 发起 缺陷 点击 更 之前 联系人 有过 互动 建立 群聊 只能 添加 好友 列表 选择 成员 不能 最近 联系人 活动 记录 查找 曾经 互动 联系人 无法 方便 找到 添加 群聊 特定 联系人 尤其 之前 互动 尚未 添 加为好友 设计 局限性 群聊 效率</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>与其他软件有冲突，把“网易云音乐”有冲突，把“网易云”卸载后就可以听到语音内容了。</t>
+          <t>正常登陆软件点击创建群组后，进入选择联系人界面，反复选择、取消联系人时，其头像出现不正常频繁性闪烁。</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>正常 登陆 软件 点击 创建 群组 进入 选择 联系人 界面 反复 选择 取消 联系人 头像 出现 正常 频繁 性 闪烁</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>在群聊界面进行手写输入时，如果添加图片，则图片被自动设置为背景，被文字覆盖，既无法看清图片，也无法看清文字。</t>
+          <t>在群聊界面中，用户的“我的群”和“好友”列表混杂在一起，导致用户难以区分哪些是群聊哪些是个人好友。这种设计上的混淆可能会造成用户的使用困扰，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>群聊 界面 群 好友 列表 混杂 一起 难以 区分 群聊 个人 好友 设计 混淆 造成 困扰</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>文字与图片重叠。给杰伦送花，花字被小花图标覆盖</t>
+          <t>在测试过程中，发现当用户在添加群组讨论成员时，尝试快速连续点击邀请最近联系人的方框选取功能，某些联系人的头像会出现闪烁不定的现象。更令人困扰的是，这种闪烁会导致联系人的头像突然更换为另一张图片，而不是用户原本选择的图片。这个现象可能是由于软件界面渲染或图像加载机制的问题导致的，影响了用户体验和操作的连贯性。</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>过程 发现 添加 群组 讨论 成员 快速 连续 点击 邀请 最近 联系人 方框 选取 联系人 头像 出现 闪烁不定 现象 更 令人 困扰 闪烁 联系人 头像 突然 更换 一张 图片 原本 选择 图片 现象 软件 界面 渲染 加载 机制 连贯性</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>上传图片超过九张，所提示的显示框  显示的时间过长（每次点击时间会叠加）</t>
+          <t>问题描述：
+在联系人列表中，删除的好友信息仍然存在，用户在尝试发送消息给已删除的好友时，系统并未给出任何提示表明该好友已被删除。此外，即使已经将该好友从列表中移除，用户仍可以向其发送信息，这可能导致用户误操作而不知道其实已经失去了与该好友的联系。</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+ 联系人 列表 删除 好友 信息 仍然 发送 消息 删除 好友 系统 并未 给出 提示 表明 好友 删除 好友 列表 移除 发送信息 误操作 知道 其实 失去 好友 联系</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1.首页上方图片墙点击不可放大或查看视频，只有点右下角的播放键才能播放。
-2.视频播放后点击屏幕不能暂停或退出，只能等到播放完毕才能自动退出。
-3.点击杰伦头像不能查看头像原图。
-4.往下滑动查看周杰伦微博后，不能一键回到顶部。</t>
+          <t>在群聊中选择陌生人后，最近联系人列表没有显示该陌生人。同时，当尝试从下方的待添加用户中点击某人的头像以添加他们时，系统会自动删除该用户而没有任何删除提示。</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>群聊 选择 陌生人 最近 联系人 列表 没有 陌生人 下方 添加 点击 某人 头像 添加 系统 自动 删除 没有 删除 提示</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>周杰伦微博中的图片打开后长按会跳转网页</t>
+          <t>该软件在新建群聊并选择最近联系人功能时出现bug。当用户试图再次勾选已选中的最近联系人时，之前被选中的联系人头像会闪烁，并且右下方的联系人数量会增加。这个现象表明了在选择联系人过程中，软件界面更新的逻辑存在问题，导致原本正确显示的联系人数量和选中状态发生了不一致的变化，这可能对用户的使用体验造成混淆和困扰。</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>新建 群聊 选择 最近 联系人 出现 试图 再次 勾选 选中 最近 联系人 之前 选中 联系 人头像 闪烁 右下方 联系人 数量 增加 现象 表明 选择 联系人 过程 软件 界面 更新 逻辑 原本 正确 联系人 数量 选中 状态 发生 一致 变化 造成 混淆 困扰</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>在发帖界面中，用户点击添加图片的图标后，系统提示使用相机进行拍照。当用户完成拍照并确认后，新图片直接显示在帖子内容下方，并且系统的提示标志显示有新图片生成。右上角有一个红色数字1的标记，用户点击这个红色提示图标后进入系统默认的相册应用。然而，在相册中，用户发现刚才拍摄的图片并没有显示出来，因此无法选择它。相册的第一个图标是一个相机图标，这暗示着用户需要重新拍照来上传图片。</t>
+          <t>这个问题描述了一个软件界面的Bug。在新建群聊时，当用户尝试取消勾选已选择的最近联系人时，所有已勾选的联系人的头像会闪烁，这与预期结果不符。预期结果是取消勾选后，右下方显示的数量会减少一个，但实际结果是数量减少了一个并且所有之前被选中的联系人的头像都闪烁了。这可能表明软件在处理用户交互时存在某种状态更新或渲染的问题。</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>软件 界面 Bug 新建 群聊 取消 勾选 选择 最近 联系人 勾选 联系人 头像 闪烁 预期 不符 预期 取消 勾选后 右下方 数量 减少 数量 减少 之前 选中 联系人 头像 闪烁 表明 软件 处理 交互 某种 状态 更新 渲染</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>在进入朋友面板并点击好友消息助手后，用户尝试点击查看更多消息以访问历史消息界面。然而，在历史消息界面中，右侧的搜索图标尺寸异常大，这导致了用户界面的视觉不平衡。该设计缺陷可能会影响用户的使用体验，因为过大的图标可能遮挡重要的信息或功能，从而造成操作上的不便。</t>
+          <t>在软件界面中，创建群聊的功能设计存在一个明显的功能性问题。当用户选择添加联系人以创建群聊时，他们无法一次性全选所有联系人，而只能逐一添加每个联系人。这种设计限制了用户的使用效率和便利性，可能会导致操作上的不便。建议开发者对这一功能进行优化，提供一个全选按钮或者批量添加联系人的选项，以提高用户体验。</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>软件 界面 创建 群聊 功能设计 明显 功能性 选择 添加 联系人 创建 群聊 无法 一次性 全选 联系人 只能 逐一 添加 每个 联系人 设计 限制 效率 便利性 不便 建议 开发者 进行 优化 提供 全选 按钮 批量 添加 联系人 选项 提高</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>该界面显示了一个群组设置，其中“消息免打扰”选项被激活。当用户点击此选项时，一个提示框弹出，告知用户已开启消息免打扰功能。但根据提供的信息和图片，这个框的生命周期似乎非常短，导致用户体验不佳，误认为应用程序存在问题。</t>
+          <t>这个软件界面在好友请求通知部分存在设计缺陷。用户收到好友请求时，没有直接的入口去查看对方的详细资料，这给用户带来了不便，因为他们无法确认请求者的身份。此外，这样的设计可能会增加用户误加陌生人的风险。</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>软件 界面 好友 请求 通知 部分 设计 缺陷 收到 好友 请求 没有 入口 查看 详细资料 带来 不便 无法 确认 请求者 身份 设计 增加 误加 陌生人 风险</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>因为网络的原因，无法发出去的消息，长按，没有重新发送的按钮，体验不好。</t>
+          <t>在联系人搜索功能中，初始显示的三位联系人并未反映出最佳的匹配排序。点击“查看更多”后，联系人列表的排列顺序并非基于其匹配程度，例如，ZZY虽然是高度相关的联系人，但并未被置于首位。这可能导致用户难以快速找到他们最需要的联系人信息。</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>联系人 搜索 初始 三位 联系人 并未 反映 出 最佳 匹配 排序 点击 查看 更 联系人 列表 排列 顺序 匹配 程度 ZZY 高度 相关 联系人 并未 置于 首位 难以 快速 找到 联系人 信息</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>该软件在接收或发送语音消息时存在明显的功能性缺陷。用户无法听到他们收到的语音消息，或者他们自己发出的语音消息。这种问题可能是由于软件中的音频处理功能出现故障，或者是与设备的音频设置相关的技术问题导致的。</t>
+          <t>该软件在执行好友拉黑操作后，仍存在一个逻辑错误，导致被拉黑的好友能够被未经其同意的情况下直接拉入群聊中。这一行为违反了用户隐私和权限管理的基本规则，可能会对用户的个人信息安全造成威胁。</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>执行 好友 拉黑 逻辑 错误 拉 黑 好友 能够 未经 同意 情况 拉 入 群聊 这一 行为 违反 隐私 权限 管理 基本 规则 个人 信息安全 造成 威胁</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>测试功能:语音播放
-重现步骤:点击语音播放
-期望结果:语音清晰，内容准确，可调节音量大小
-实际结果:音量较小，调节手机音量后无效</t>
+          <t>测试功能:添加联系人
+重现步骤:发起群聊，勾选联系人，取消勾选
+实际结果:取消勾选时头像异常，先闪跳到默认其他头像再回到本来头像。
+选中多位联系人再取消勾选其中一个，其他联系人头像也产生异常。
+预期结果:直接取消选中，页面无其他变化</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>: 添加 联系人 
+ 重现 : 发起 群聊 勾选 联系人 取消 勾选 
+ : 取消 勾选时 头像 异常 先闪 跳 默认 头像 回到 本来 头像 
+ 选中 多位 联系人 取消 勾选 联系 人头像 产生 异常 
+ 预期 : 取消 选中 页面 变化</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>该软件界面中，文件上传功能没有提供直接的上传按钮，而是要求用户手动从手机存储中选择文件进行上传。这种设计使得用户操作过程复杂且不直观，可能导致用户体验不佳。</t>
+          <t>当用户试图在一次添加21个联系人时创建群组，系统在用户输入群名称并点击确认后出现错误。这导致用户必须返回到之前的界面重新输入信息，这种反复的操作给用户带来了不便。</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>试图 一次 添加 21 联系人 创建 群组 系统 输入 群 名称 点击 确认 出现 错误 必须 返回 之前 界面 重新 输入 信息 反复 带来 不便</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>在群聊中，当好友发送了一张png格式的图片时，预期的预览效果并未出现。相反，接收到的是一个文件，而非正常的图片预览显示。</t>
+          <t>在发起群聊并尝试添加群聊好友时，用户界面存在明显的性能问题。当用户选择要添加到群聊的好友时，已选好友和正在被选中的好友的头像都会发生跳动（加载），这暗示了图像加载速度缓慢。这种跳动现象可能是由于软件内部处理图像加载的速度不够快，或者是由于手机硬件性能的限制导致的。这个问题可能会导致用户的等待时间过长，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>发起 群聊 添加 群聊 好友 用户界面 明显 性能 选择 添加 群聊 好友 已选 好友 正在 选中 好友 头像 发生 跳动 加载 暗示 加载 速度 缓慢 跳动 现象 软件 内部 处理 加载 速度 不够 快 手机 硬件 性能 限制 等待时间 过长</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>消息在短暂时间内发送过多会被系统禁言，但依旧可以发送消息。</t>
+          <t>该软件在用户试图添加好友时，界面出现了一个逻辑错误。用户在选择“同意”或“取消”按钮后，并没有得到预期的操作反馈或者结果，导致用户无法继续进行下一步操作。</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>试图 添加 好友 界面 出现 逻辑 错误 选择 同意 取消 按钮 没有 得到 预期 反馈 无法 继续 进行 一步</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>该界面在“发送文件”的选项下，没有明确告知用户可发送的最大文件大小限制。这可能会让用户在选择发送大文件时，无法预期到可能的问题或限制。</t>
+          <t>在发起群聊时，该功能允许用户邀请非好友加入群聊。然而，这种设计可能导致用户的困扰，因为他们可能不愿意接受不是好友的邀请。这可能会降低用户的使用体验，并导致他们对该应用的信任度下降。</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>发起 群聊 允许 邀请 非 好友 加入 群聊 设计 困扰 愿意 接受 好友 邀请 降低 应用 信任度 下降</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>重现步骤:加入群聊后播放语音
-期望结果:语音清晰，内容准确，可调节音量大小
-实际结果:音量较小，调节手机音量后无效</t>
+          <t>在新建群聊并添加联系人的过程中，当尝试勾选某个联系人时，其头像会出现短暂的闪烁现象。</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>新建 群聊 添加 联系人 过程 勾选 联系人 头像 出现 短暂 闪烁 现象</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>首次打开JayMe尝试发送语音消息时，在”JayMe正在尝试通话录音和本地录音“弹框中选择”拒绝“后，之后每次发送语音消息时只提示”录音太短“。【PS：对比QQ，会提醒用户录音权限已关闭，需手动设置打开】</t>
+          <t>该界面在用户试图通过“发起群聊”功能创建群组时存在设计缺陷。当用户的最近联系人列表为空时，界面并未提供除搜索框之外的其他直接添加好友到群聊的方式，导致用户必须手动搜索并添加每一个想要一起聊天的好友。这样的设计不仅增加了用户的使用负担，也降低了应用程序的整体用户体验，使得创建群聊的过程变得相对繁琐和不直观。</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>界面 试图 发起 群聊 创建 群组 设计 缺陷 最近 联系人 列表 空时 界面 并未 提供 搜索 框 之外 添加 好友 群聊 方式 必须 手动 搜索 添加 想要 一起 聊天 好友 设计 增加 负担 降低 应用程序 整体 创建 群聊 过程 变得 相对 繁琐 直观</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>图片中显示的语音消息在播放时出现了杂音，这可能意味着语音消息在传输或录制过程中受到了干扰，导致其质量下降。</t>
+          <t>该软件界面中，“发起群聊”功能并未提供直接添加自己好友的选项，导致用户在尝试创建群聊时可能会感到不便。这种设计可能增加了用户的操作复杂性，影响了用户体验。</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>界面 发起 群聊 并未 提供 添加 好友 选项 创建 群聊 感到 不便 设计 增加 复杂性</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>在群组设置的共享功能页面中，用户在上传文件后发现没有提供暂停或取消上传的按钮。这使得用户在上传大型文件时无法中途停止或更改操作，可能会导致不必要的数据传输和可能的等待时间。</t>
+          <t>在发起群聊时，当用户通过搜索选择一大批联系人后，被选中的用户的头像会出现在界面下方。但当用户点击这些头像以尝试取消选中状态时，系统并未提供任何视觉或听觉提示来告知用户这一行为的效果。这种设计导致用户无法直观地理解他们的操作对选中状态的影响，从而降低了整体的用户体验。</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>发起 群聊 搜索 选择 一大批 联系人 选中 头像 出现 界面 下方 点击 头像 取消 选中 状态 系统 并未 提供 视觉 听觉 提示 告知 这一 行为 效果 设计 无法 直观 理解 选中 状态 降低 整体</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>该软件在发起群聊后，当用户在群聊中只发送一条消息且未满一屏时，屏幕最上方出现了“查看更多消息”的提示。然而，根据问题描述，这个提示应该在消息满一屏时才出现。因此，当前的界面布局与用户需求不符，可能导致用户的困惑或误操作。</t>
+          <t>在最近联系人列表中，当没有显示任何联系人时，系统并未提供“暂无最近联系人”的提示信息。这可能会给用户带来困惑，因为他们期望在列表为空时得到某种形式的反馈。</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>最近 联系人 列表 没有 联系人 系统 并未 提供 暂无 最近 联系人 提示信息 带来 困惑 期望 列表 空时 得到 某种 形式 反馈</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>该软件界面显示，当用户尝试长时间按住并发送好友发送的图片时，系统并未提供收藏或保存图片的选项。这意味着用户无法将此图片存入其个人收藏或设备存储中，这可能会影响用户的使用体验和功能需求。</t>
+          <t>发起群聊-添加成员页面，断开网络，选中成员，点击确定，仍能进入到创建群组页面。</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>发起 群聊 - 添加 成员 页面 断开 网络 选中 成员 点击 确定 仍能 进入 创建 群组 页面</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>该应用程序在“消息免打扰”功能设置后，没有提供任何视觉或文字提示来告知用户他们已经开启了此功能。这可能导致用户误操作后无法接收到相关群组的消息通知，从而影响用户的正常使用和沟通。</t>
+          <t>该软件界面在添加群成员功能上存在缺陷，导致用户无法全选并邀请好友加入群聊。此问题可能会降低用户的使用体验，因为他们不能一次性地将多个联系人添加到群组中。</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>界面 添加 群 成员 缺陷 无法 全选 邀请 好友 加入 群聊 降低 不能 一次性 多个 联系人 添加 群组</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>在正常使用过程中并未发现什么问题，测试设计的各项内容均能正常使用。有个问题，就是在发图片时，如果图片较大，发送延时，本来是在其他聊天消息之前的，由于发送慢，在其他消息发送后才完全发出，导致聊天界面混乱。</t>
+          <t>问题描述：在软件中，当用户尝试通过搜索好友来建立群聊时，虽然用户的好友列表被正确地显示出来，但该列表与非好友的部分之间没有明确的视觉区分。具体来说，“流年似水梦归处”这一名称的用户被标记为好友，但在界面上并没有使用标签或其他方式来明确区分她与其他非好友用户。这导致了视觉效果上的不一致和用户体验的不协调。</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>软件 搜索 好友 建立 群聊 好友 列表 正确 列表 与非 好友 部分 之间 没有 明确 视觉 区分 具体来说 流年似水 梦归处 这一 名称 标记 好友 界面 没有 标签 方式 明确 区分 非 好友 视觉效果 一致 协调</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>在群助手中，当其他用户申请加入群时，该消息不仅在本群内显示，还显示在群助手中。这种设计可能导致群助手的消息列表变得混乱和难以管理，特别是当有大量此类消息时。</t>
+          <t>该软件的用户界面中，“好友”分组功能似乎出现了故障。用户无法对好友进行分组操作，这可能导致用户无法根据不同的标准或条件对他们的联系人进行分类和组织。此问题可能会影响到用户的通讯录管理效率，从而影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>用户界面 好友 分组 出现 故障 无法 好友 进行 分组 无法 不同 标准 联系人 进行 分类 组织 通讯录 管理效率</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>该软件在接收好友的语音聊天信息时出现了问题。用户无法听到任何语音内容，尽管语音消息已成功发送并且显示为已接收。这可能是由于软件内部的音频处理功能出现了故障，导致语音信息无法正确播放。</t>
+          <t>在手机的聊天应用中，当收到一个好友请求时，用户点击“同意”后，原本应该可以直接进入与该好友的聊天界面。然而，在这张图片中，尽管用户已经点击了“同意”，但在试图找到并进入与新好友的聊天界面时，却找不到相应的入口。这可能是因为某种软件故障或设计缺陷导致的。</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>手机 聊天 应用 收到 好友 请求 点击 同意 原本 应该 进入 好友 聊天 界面 图片 点击 同意 试图 找到 进入 新 好友 聊天 界面 找 不到 相应 入口 是因为 某种 软件 故障 设计 缺陷</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>在群共享或好友共享的功能中，用户无法直接访问到存储设备中的文件，必须通过逐级浏览来查找所需文件。这种操作方式不仅消耗了大量的时间，还可能因为复杂的界面设计导致用户的使用体验下降。</t>
+          <t>点击创建群聊，下面可勾选最近联系人添加进群聊。当最近联系人消息清空后，不显示最近联系人的信息。新建群，添加成员时，希望增加勾选好友的功能，不用费更多时间再去查找已有好友添加进群聊。</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>点击 创建 群聊 下面 可勾选 最近 联系人 添加 进 群聊 最近 联系人 消息 清空 最近 联系人 信息 新建 群 添加 成员 希望 增加 勾选 好友 用费 更 时间 查找 已有 好友 添加 进 群聊</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>动图不能预览，一点击就直接发送</t>
+          <t>在联系人列表界面，当最近联系人为空时，系统并未提供预期的提示信息，表明列表已为空。这可能导致用户误解为列表仍在加载中，从而产生混淆和不便。</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>联系人 列表 界面 最近 联系人 空时 系统 并未 提供 预期 提示信息 表明 列表 已为 空 误解 列表 加载 产生 混淆 不便</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>在软件测试过程中，发现一个与发送手写内容相关的bug。当用户点击发送手写内容时，系统显示“无发送内容”的提示。然而，在再次点击“发送”按钮后，内容成功发送并显示在与好友的聊天页面中。这个现象不符合预期，因为通常用户应该能直接看到他们正在尝试发送的内容。此bug可能导致用户感到困惑，因为他们无法直接预览他们要发送的内容。</t>
+          <t>在软件的好友添加功能中，用户在成功添加好友后，无法为其设置备注姓名。这导致当用户拥有大量好友时，难以区分和记忆每个好友的姓名，从而给用户带来了极大的不便。</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>软件 好友 添加 成功 添加 好友 无法 设置 备注 姓名 拥有 大量 好友 难以 区分 记忆 每个 好友 姓名 带来 极大 不便</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>在群聊界面发送图片时，系统相册中显示的图片数量与实际存在的照片数量不符。软件仅展示了部分照片，而实际上相册中存储了更多的图片。</t>
+          <t>该软件在创建群聊的过程中存在逻辑错误。用户在发起群聊时，选择相同的联系人并输入相同的群名进行操作，但系统却错误地允许了两次建群请求，导致同一组联系人被加入了两个不同的群聊。这种情况明显违反了正常的群聊创建规则，给用户带来了困扰和不便，影响了用户体验。</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>创建 群聊 过程 逻辑 错误 发起 群聊 选择 相同 联系人 输入 相同 群名 进行 系统 错误 允许 两次 建群 请求 一组 联系人 加入 两个 不同 群聊 情况 明显 违反 正常 群聊 创建 规则 带来 困扰 不便</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>不经过同意便可以给陌生人发送消息，拉黑后才能防止骚扰。但是，创建群聊时可以拉入陌生人，并且不需要经过他同意。就算用户被拉黑，也能将拉黑他的人拉入群。这很容易让用户遭受骚扰，并且拉黑也不能阻止骚扰</t>
+          <t>该软件的群聊功能在用户选择陌生人后出现了显示问题。最近联系人列表中没有显示相应的人数，这可能导致用户无法准确了解群聊中的人员构成。更为严重的是，当用户点击添加人的头像时，软件会自动删除该用户，并且没有提供任何删除确认或提示信息给用户。这种行为可能会导致误操作，损害用户的隐私和数据安全。</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>群聊 选择 陌生人 出现 最近 联系人 列表 没有 相应 人数 无法 准确 了解 群聊 人员构成 更为严重 点击 添加 头像 软件 自动 删除 没有 提供 删除 确认 提示信息 行为 误操作 损害 隐私 数据安全</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>群里聊天时成员发语音，无法听到</t>
+          <t>在搜索结果中，已添加的人仍然出现，这可能是一个显示错误或系统未能正确更新联系人列表的问题。当用户添加某人为联系人后，系统应该立即从搜索结果中移除该联系人，以确保用户界面的一致性和准确性。</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>搜索 添加 仍然 出现 错误 系统 未能 正确 更新 联系人 列表 添加 某人 联系人 系统 应该 立即 搜索 移除 联系人 确保 用户界面 一致性 准确性</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>该软件界面显示用户尝试发送消息，但消息无法成功发送。尽管网络连接正常并且有速度显示，但消息按钮似乎没有反应或被禁用。这可能表明一个功能性的问题，即消息发送功能可能出现了故障或错误。</t>
+          <t>该bug描述为：在添加好友后，用户的名字显示为123。当好友改名为456之后，在用户的好友列表中名字没有更新，仍然显示为123。但在查看好友信息时，其名字却正确地显示为456。</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>添加 好友 名字 123 好友 改名 456 之后 好友 列表 名字 没有 更新 仍然 123 查看 好友 信息 名字 正确 456</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>动图不能长按预览，点击就直接发送</t>
+          <t>该应用程序存在一个软件缺陷，导致用户可以在没有对方接受邀请的情况下将非好友添加到群聊中。此问题可能会对用户的隐私和安全造成潜在风险。</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>应用程序 软件缺陷 没有 接受 邀请 情况 非 好友 添加 群聊 隐私 安全 造成 潜在 风险</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>如果有人发送一长段文字，或者是一长段表情，接收群组里的长消息时，此消息被分割成很多段。用户体验差。</t>
+          <t>创建群时，必须选择一个好友，不然不能创建。</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>创建 群时 必须 选择 好友 不能 创建</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>这个bug主要是关于用户体验的，因为它与我们用户所使用最多的微信QQ的聊天常理有一点相悖。一般我们发送图片，正在上传与发送成功图片都是在同一个地方的。而这里，用户在使用的过程中就会感到很别扭很不舒服。</t>
+          <t>该应用程序在收到陌生人的好友请求时，并未提供足够的信息来让用户了解对方的身份。用户无法查看对方的个人资料或获取任何关于他们的背景信息，这限制了用户与新联系人互动的能力，可能导致沟通不畅或误解。</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>应用程序 收到 陌生人 好友 请求 并未 提供 足够 信息 了解 身份 无法 查看 个人资料 获取 背景 信息 限制 新 联系人 互动 能力 沟通 不畅 误解</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>在聊天界面，当用户发送消息时，仅显示好友的名字，而没有展示自己的聊天昵称。这种情况可能会给用户带来混淆和不便，因为他们无法清楚地知道自己是谁，以及他们的消息是由谁发出的。</t>
+          <t>问题描述：在尝试添加好友时，用户在第一次添加好友后再次尝试添加，系统仍然弹出了确认添加好友的窗口。这可能表明系统的缓存或记忆机制存在问题，导致即使用户已经确认过操作，系统仍旧认为需要再次确认。</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>添加 好友 第一次 添加 好友 再次 添加 系统 仍然 弹出 确认 添加 好友 窗口 表明 系统 缓存 记忆 机制 确认 系统 认为 再次 确认</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>这个bug是在用户试图从系统相册发送图片时出现的。当用户打开相册并选择多张图片时，系统只显示了部分图片，而不是所有选定的图片。这可能会导致用户无法正确选择他们想要发送的图片，从而影响他们的使用体验。</t>
+          <t>在创建新群的步骤中，第一步是选择联系人。然而，这个设计没有考虑到新用户可能没有任何联系人的情况。这可能会导致新用户在尝试创建群组时遇到困难，因为他们无法完成第一步。</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>创建 新群 第一步 选择 联系人 设计 没有 考虑 新 没有 联系人 情况 新 创建 群组 遇到困难 无法 完成 第一步</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>这个bug是关于快捷回复功能的异常行为。当用户选择快捷回复内容并准备发送时，该内容没有先跳转到发送消息的文本框内供用户确认和修改，而是直接发送出去了。这违反了用户的期望，因为他们可能希望在发送前对快速回复的内容进行一些调整。</t>
+          <t>在创建群聊的界面中，当用户选择多个好友并试图滑动到最新选中的好友时，下方的列表并没有如预期那样滑动，而是停留在了之前的好友上。</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>创建 群聊 界面 选择 多个 好友 试图 滑动 最新 选中 好友 下方 列表 没有 预期 滑动 停留 之前 好友</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>用户在进行聊天的时候发语音是语音的声音比较小。</t>
+          <t>新建群聊无法直接添加好友，只能直接勾选最近联系人和通过用户名搜索后选中</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>新建 群聊 无法 添加 好友 只能 勾选 最近 联系人 用户名 搜索 选中</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>群功能问题有时创建群，对方手机不显示其在群中也无法收到消息</t>
+          <t>添加联系人时没有“全选”按钮</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>添加 联系人 没有 全选 按钮</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>该应用程序在用户尝试发送声音消息时遇到了问题。具体来说，当用户调整他们想要发送的声音的大小时，应用程序似乎不能稳定地保持这个设置。声音的播放音量可能会突然增大或减小，导致用户体验不一致和困扰。这可能影响用户对应用程序的整体满意度和使用频率。</t>
+          <t>在进入创建群组界面时，用户选中好友后，群名称的显示出现了异常闪烁现象。这种闪烁不仅打断了用户的视觉体验，还可能引起误解或困惑，导致用户对操作流程产生疑问。</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>进入 创建 群组 界面 选中 好友 群 名称 出现 异常 闪烁 现象 闪烁 打断 视觉 引起 误解 困惑 产生 疑问</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>在群聊页面，当用户尝试发送视频或需要下载文件时，如果使用的是数据流量而非WiFi环境，系统没有提供任何提示信息。这可能导致用户不知不觉中消耗大量流量，从而产生额外的费用。</t>
+          <t>1.进入朋友界面，点击右上角的更多，选择发起群聊
+2.在最近联系人中选择一位好友，后面的单选框中会打上钩，在点击一下，钩会取消。在点击取消钩的时候，头像会一闪一闪的。</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>. 进入 朋友 界面 点击 右上角 更 选择 发起 群聊 
+ . 最近 联系人 选择 一位 好友 后面 单选框 中会 上钩 点击 一下 钩 取消 点击 取消 钩 头像 一闪 一闪</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>在群聊页面中，当用户尝试发送视频或需要下载文件时，系统并未提供任何关于流量使用的提示。特别是在使用数据流量的情况下，这可能导致用户不知不觉地消耗了大量的流量，从而产生了额外的费用。此外，这种情况可能会对用户的体验造成负面影响，因为他们可能没有意识到正在消耗大量的数据。</t>
+          <t>好友，自己群组聊天中的背景图片不能修改。</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>好友 群组 聊天 背景图片 不能 修改</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>软件消息提示是与本机的铃声音量相连接的，但一般人都会把铃声音量开的比较高，这样有消息提示的时候声音就显得比较大，比较刺耳了</t>
+          <t>群组和好友列表没有刷新功能</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>群组 好友 列表 没有 刷新</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>在聊天界面中，联系人列表显示存在逻辑错误。给自己发送消息的联系人并没有按照时间顺序或特定的排序规则排列，而是与未给自己发送消息的用户混合在一起。这种排列方式不符合用户的期望和习惯，可能会对用户体验造成不便。</t>
+          <t>添加群好友时，多次点击同一个好友，好友头像会闪动。</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>添加 群 好友 多次 点击 同一个 好友 好友 头像 闪动</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>聊天界面消息查看，当还没有到下一屏幕时，还有文字提示标签，屏幕转换不流畅用户体验差，严重程度较轻</t>
-        </is>
+          <t>该软件界面中，“添加成员”功能缺乏完整的选择按钮。在用户尝试添加联系人时，必须手动选择一个联系人，然后再选择另一个，这样的操作方式对用户不友好，导致用户体验较差。</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>界面 添加 成员 缺乏 完整 选择 按钮 添加 联系人 必须 手动 选择 联系人 选择 方式 友好 较差</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>不能修改好友备注，当好友太多的时候，分不清谁是谁，建议添加好友备注。</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>不能 修改 好友 备注 好友 太多 分不清 建议 添加 好友 备注</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>在软件界面中，当用户尝试继续添加新的联系人时，之前已经添加过的成员名单仍然出现在列表中，导致这些成员信息被重复显示。</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>软件 界面 继续 添加 新 联系人 之前 添加 成员名单 仍然 出现 列表 成员 信息 重复</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>点击好友头像，进入聊天页面，可无限循环进入好友聊天页面</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>点击 好友 头像 进入 聊天 页面 无限 循环 进入 好友 聊天 页面</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>在软件的好友管理功能中，用户无法进行分类和备注操作，导致好友管理体验不佳。</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>软件 好友 管理 无法 进行 分类 备注 好友 管理 不佳</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>问题描述：在尝试将新的联系人添加到最近联系人列表时，系统显示添加失败，错误信息表明该联系人已经存在于列表中。</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>新 联系人 添加 最近 联系人 列表 系统 添加 失败 错误信息 表明 联系人 列表</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>删除好友后‘，好友仍在列表中</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>删除 好友 ‘ 好友 列表</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B659"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>创建</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>头像</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>选中</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>邀请</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>闪烁</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>新</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>现象</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>勾选</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>朋友</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>新建</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>只能</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>降低</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>建立</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>这一</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>网络</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>互动</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>应用程序</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>联系</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>快速</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>断开</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>全选</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>用户名</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>修改</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>至少</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>加为好友</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>产生</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>手动</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>拉</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>入口</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>风险</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>人员</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>闪动</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>误解</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>直观</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>暗示</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>沟通</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>匹配</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>像框</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>杰迷</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>空时</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>名字</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>繁琐</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>进群</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>跳转</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>能够</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>框</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>添</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>分类</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>第一个</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>上方</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>方便</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>原本</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>困惑</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>优先</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>该群</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>社交</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>已选</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>身份</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>刷新</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>需</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>仅</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>排列</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>信息安全</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>组织</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>信任度</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>变化</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>右下方</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>人头像</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>某人</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>移除</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>频繁</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>文本</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>机制</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>渲染</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>通讯录</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>标记</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>考虑</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>一位</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>头</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>勾选时</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>减少</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>任何人</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>输入法</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>成员名单</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>速度</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>跳动</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>位置</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>耗时</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>建群</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>规则</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>拉入</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>一次性</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>极大</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>遇到困难</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>帐号</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>更改</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>群名</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>关系</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>分组</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>转</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>忙</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>其实</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>头像图片</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>第一步</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>滑动</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>放大镜</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>xw</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>登陆</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>方法</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>实用性</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>包括</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>牛仔</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>了解</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>方面</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>底部</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>栏中</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>准确</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>响应</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>突然</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>网络连接</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>聊过</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>功能设计</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>天</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>昵称</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>无论是</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>停留</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>并不需要</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>闪退</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>未经</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>具体表现</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>授权</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>姓名</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>进</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>一闪</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>记忆</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>钩</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>表现</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>不畅</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>较差</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>缓存</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>太多</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>活动</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>有过</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>分不清</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>弹窗</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>窗口</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>无限</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>逐一</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>弹出</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>第一次</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>循环</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>便利性</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>开发者</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>优化</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>曾经</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>批量</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>背景</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>原因</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>提高</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>能力</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>详细资料</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>讨论</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>局限性</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>尤其</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>知道</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>方框</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>选取</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>闪烁不定</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>令人</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>更换</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>一张</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>一下</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>背景图片</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>上钩</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>中会</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>缺乏</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>请求者</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>连贯性</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>发送信息</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>失去</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>尚未</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>单选框</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>混杂</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>疑问</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>打断</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>性</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>新群</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>连续</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>bug</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>勾选后</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>高度</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>误加</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>数据安全</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>已为</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>拥有</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>两次</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>一组</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>听觉</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>人员构成</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>一大批</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>复杂性</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>感到</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>相对</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>更为严重</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>损害</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>负担</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>已有</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>暂无</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>与非</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>视觉效果</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>标准</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>标签</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>管理效率</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>梦归处</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>流年似水</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>是因为</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>仍能</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>下面</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>可勾选</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>形式</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>用费</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>之外</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>短暂</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>三位</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>愿意</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>改名</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>黑</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>拉黑</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>首位</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>置于</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>协调</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>软件缺陷</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>zzy</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>程度</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>潜在</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>最佳</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>个人资料</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>基本</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>威胁</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>确保</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>立即</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>等待时间</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>硬件</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>快</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>内部</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>缓慢</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>先闪</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>多位</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>本来</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>一致性</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>跳</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>缺少</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>大多数</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>类别</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>时仅</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>中间</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>电池电量</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>传输速度</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>信号</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>稳定</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>以外</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>检索</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>动作</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>索引</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>误判</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>导致系统</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>均</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>主页</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>遭遇</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>时均</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>提到</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>无需</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>键来</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>app</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>轻易</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>身份验证</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>新创建</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>具有</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>每次</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>测试步骤</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>即可</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>相关性</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>结果显示</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>滥用</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>原则</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>保护</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>现在</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>东大街</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>对称</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>其拉入</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>多种</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>需该</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>要拉进</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>流失</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>短暂性</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>汉字</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>对话框</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>后群</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>活跃</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>没有响应</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>进来</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>目前</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>不满</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>频频</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>厌烦</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>太多人</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>安全隐患</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>拖进</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>财产</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>交流</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>不知情</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>间</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>重影</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>秒左右</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>只以</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>易</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>是非</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>错</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>交谈</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>群后</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>负面影响</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>消失</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>几个</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>泄露</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>漏洞</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>照片</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>选</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>框时</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>右侧</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>组员</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>误以为</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>存储</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>检测</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>搞错</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>真正</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>预设</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>政策</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>覆盖</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>总是</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>选栏</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>满意</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>极为</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>必要</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>群中</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>打开</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>响应速度</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>刚刚</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>秒</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>刚建</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>建完群</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>清晰</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>唯一</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>保持</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>这款</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>@</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>评论</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>换日线</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>名为</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>固定</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>容纳</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>报告</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>但头</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>满</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>易用性</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>中断</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>意外</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>分析</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>并建</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>一名</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>第二个</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>快捷</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>面对面</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>改进</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>逐个</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>若想</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>处于</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>当多人</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>次</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>上限</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>挺久</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>用于</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>通常</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>键</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>习惯</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>旁</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>勾选框</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>可用</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>清楚</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>称呼</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>毫无</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>察觉</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>间隔</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>有时候</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>点多</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>一遍</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>认识</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>禁用</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>贴</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>进去</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>注明</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>人才</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>人来</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>广告</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>垃圾</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>被迫</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>不想</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
